--- a/03_Output/Exercise c/c_Japan.xlsx
+++ b/03_Output/Exercise c/c_Japan.xlsx
@@ -1,59 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faa16466cf8c1efc/Documents/GitHub/BSE_Macro_Accounters/03_Output/Exercise c/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD225EDF8F79A8D366075C52F37BD2723AC0C424" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461986CD-4A21-48E9-A3FC-4A12EF66B07B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
-  <si>
-    <t>NACE</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>g_y</t>
-  </si>
-  <si>
-    <t>g_KY</t>
-  </si>
-  <si>
-    <t>g_h</t>
-  </si>
-  <si>
-    <t>capital_contrib</t>
-  </si>
-  <si>
-    <t>TFP_contrib</t>
-  </si>
-  <si>
-    <t>TOT</t>
-  </si>
-  <si>
-    <t>Inf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,515 +350,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NACE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>g_y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>g_KY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>g_h</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>g_hcpwt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>capital_contrib</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TFP_contrib</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TFP_contrib_hcpwt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B2">
         <v>1995</v>
       </c>
       <c r="C2">
-        <v>-2.9678258318963189</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
+        <v>-2.967825831896319</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>-0.08513590375708824</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B3">
         <v>1996</v>
       </c>
       <c r="C3">
-        <v>2.805593180125188E-2</v>
+        <v>0.02805593180125188</v>
       </c>
       <c r="D3">
-        <v>2.6551212279031229E-3</v>
+        <v>0.002655121227907564</v>
       </c>
       <c r="E3">
-        <v>-0.25760078155409261</v>
+        <v>-0.2576007815540926</v>
       </c>
       <c r="F3">
-        <v>1.3275606139515621E-3</v>
+        <v>0.005153660072674704</v>
       </c>
       <c r="G3">
-        <v>0.28432915274139292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>0.001327560613953782</v>
+      </c>
+      <c r="H3">
+        <v>0.2843291527413907</v>
+      </c>
+      <c r="I3">
+        <v>0.02157471111462339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B4">
         <v>1997</v>
       </c>
       <c r="C4">
-        <v>7.8919432560811131E-3</v>
+        <v>0.007891943256081113</v>
       </c>
       <c r="D4">
-        <v>1.339376228963118E-2</v>
+        <v>0.01339376228963052</v>
       </c>
       <c r="E4">
-        <v>-0.19054132647706551</v>
+        <v>-0.1905413264770655</v>
       </c>
       <c r="F4">
-        <v>6.6968811448155918E-3</v>
+        <v>0.005153721634588049</v>
       </c>
       <c r="G4">
-        <v>0.191736388588331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
+        <v>0.006696881144815259</v>
+      </c>
+      <c r="H4">
+        <v>0.1917363885883313</v>
+      </c>
+      <c r="I4">
+        <v>-0.003958659523322194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B5">
         <v>1998</v>
       </c>
       <c r="C5">
-        <v>-8.5854840614449923E-3</v>
+        <v>-0.008585484061444992</v>
       </c>
       <c r="D5">
-        <v>3.2074103184051239E-2</v>
+        <v>0.0320741031840488</v>
       </c>
       <c r="E5">
-        <v>-0.12344214212324769</v>
+        <v>-0.1234421421232477</v>
       </c>
       <c r="F5">
-        <v>1.603705159202562E-2</v>
+        <v>0.005153718410712216</v>
       </c>
       <c r="G5">
-        <v>9.8819606469777055E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
+        <v>0.0160370515920244</v>
+      </c>
+      <c r="H5">
+        <v>0.09881960646977828</v>
+      </c>
+      <c r="I5">
+        <v>-0.02977625406418161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B6">
         <v>1999</v>
       </c>
       <c r="C6">
-        <v>1.088403017337281E-2</v>
+        <v>0.01088403017337281</v>
       </c>
       <c r="D6">
-        <v>1.7092377062510881E-2</v>
+        <v>0.01709237706251354</v>
       </c>
       <c r="E6">
-        <v>-8.5292875559369374E-2</v>
+        <v>-0.08529287555936937</v>
       </c>
       <c r="F6">
-        <v>8.5461885312554386E-3</v>
+        <v>0.005153722647328829</v>
       </c>
       <c r="G6">
-        <v>8.7630717201486741E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>0.008546188531256771</v>
+      </c>
+      <c r="H6">
+        <v>0.08763071720148541</v>
+      </c>
+      <c r="I6">
+        <v>-0.002815881005212795</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>2.659493397741541E-2</v>
+        <v>0.02659493397741541</v>
       </c>
       <c r="D7">
-        <v>-5.7295779456403304E-3</v>
+        <v>-0.005729577945644104</v>
       </c>
       <c r="E7">
-        <v>-6.9171321748415782E-2</v>
+        <v>-0.06917132174841578</v>
       </c>
       <c r="F7">
-        <v>-2.8647889728201652E-3</v>
+        <v>0.005153733493302282</v>
       </c>
       <c r="G7">
-        <v>9.863104469865136E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>-0.002864788972822052</v>
+      </c>
+      <c r="H7">
+        <v>0.09863104469865325</v>
+      </c>
+      <c r="I7">
+        <v>0.02430598945693518</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B8">
         <v>2001</v>
       </c>
       <c r="C8">
-        <v>4.1973440963132269E-3</v>
+        <v>0.004197344096313227</v>
       </c>
       <c r="D8">
-        <v>1.704530238406932E-2</v>
+        <v>0.01704530238407065</v>
       </c>
       <c r="E8">
-        <v>-6.6751486625162837E-2</v>
+        <v>-0.06675148662516284</v>
       </c>
       <c r="F8">
-        <v>8.5226511920346582E-3</v>
+        <v>0.004421992285685628</v>
       </c>
       <c r="G8">
-        <v>6.2426179529441413E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
+        <v>0.008522651192035324</v>
+      </c>
+      <c r="H8">
+        <v>0.06242617952944074</v>
+      </c>
+      <c r="I8">
+        <v>-0.008747299381407725</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B9">
         <v>2002</v>
       </c>
       <c r="C9">
-        <v>1.885923324034278E-2</v>
+        <v>0.01885923324034278</v>
       </c>
       <c r="D9">
-        <v>4.5253552505393202E-3</v>
+        <v>0.004525355250540875</v>
       </c>
       <c r="E9">
-        <v>-3.1402700551157459E-2</v>
+        <v>-0.03140270055115746</v>
       </c>
       <c r="F9">
-        <v>2.2626776252696601E-3</v>
+        <v>0.004422088079906183</v>
       </c>
       <c r="G9">
-        <v>4.7999256166230582E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
+        <v>0.002262677625270437</v>
+      </c>
+      <c r="H9">
+        <v>0.0479992561662298</v>
+      </c>
+      <c r="I9">
+        <v>0.01217446753516616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B10">
         <v>2003</v>
       </c>
       <c r="C10">
-        <v>1.764814931460279E-2</v>
+        <v>0.01764814931460279</v>
       </c>
       <c r="D10">
-        <v>-8.4327674997659585E-3</v>
+        <v>-0.008432767499768401</v>
       </c>
       <c r="E10">
-        <v>-7.8317250228656654E-3</v>
+        <v>-0.007831725022865665</v>
       </c>
       <c r="F10">
-        <v>-4.2163837498829793E-3</v>
+        <v>0.004422026394890644</v>
       </c>
       <c r="G10">
-        <v>2.9696258087351431E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
+        <v>-0.004216383749884201</v>
+      </c>
+      <c r="H10">
+        <v>0.02969625808735266</v>
+      </c>
+      <c r="I10">
+        <v>0.01744250666959635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B11">
         <v>2004</v>
       </c>
       <c r="C11">
-        <v>2.0278629316169191E-2</v>
+        <v>0.02027862931616919</v>
       </c>
       <c r="D11">
-        <v>-1.4793474523578711E-2</v>
+        <v>-0.01479347452357405</v>
       </c>
       <c r="E11">
-        <v>1.6799984246953951E-2</v>
+        <v>0.01679998424695395</v>
       </c>
       <c r="F11">
-        <v>-7.3967372617893554E-3</v>
+        <v>0.004422019633953722</v>
       </c>
       <c r="G11">
-        <v>1.08753823310046E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
+        <v>-0.007396737261787023</v>
+      </c>
+      <c r="H11">
+        <v>0.01087538233100227</v>
+      </c>
+      <c r="I11">
+        <v>0.0232533469440025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B12">
         <v>2005</v>
       </c>
       <c r="C12">
-        <v>1.8141202749979879E-2</v>
+        <v>0.01814120274997988</v>
       </c>
       <c r="D12">
-        <v>-1.403860646348321E-2</v>
+        <v>-0.01403860646348587</v>
       </c>
       <c r="E12">
-        <v>2.1614312242261399E-2</v>
+        <v>0.0216143122422614</v>
       </c>
       <c r="F12">
-        <v>-7.0193032317416026E-3</v>
+        <v>0.004422066455912255</v>
       </c>
       <c r="G12">
-        <v>3.54619373946008E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
+        <v>-0.007019303231742935</v>
+      </c>
+      <c r="H12">
+        <v>0.003546193739461412</v>
+      </c>
+      <c r="I12">
+        <v>0.02073843952581056</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B13">
         <v>2006</v>
       </c>
       <c r="C13">
-        <v>8.4092945536791142E-3</v>
+        <v>0.008409294553679114</v>
       </c>
       <c r="D13">
-        <v>-6.3298936204532197E-3</v>
+        <v>-0.006329893620452332</v>
       </c>
       <c r="E13">
-        <v>4.4327450587404726E-3</v>
+        <v>0.004432745058740473</v>
       </c>
       <c r="F13">
-        <v>-3.1649468102266098E-3</v>
+        <v>0.004421957371923968</v>
       </c>
       <c r="G13">
-        <v>7.1414963051652514E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>7</v>
+        <v>-0.003164946810226166</v>
+      </c>
+      <c r="H13">
+        <v>0.007141496305164807</v>
+      </c>
+      <c r="I13">
+        <v>0.007152283991981312</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B14">
         <v>2007</v>
       </c>
       <c r="C14">
-        <v>9.6325674149295715E-3</v>
+        <v>0.009632567414929571</v>
       </c>
       <c r="D14">
-        <v>-1.0518713723062231E-2</v>
+        <v>-0.01051871372306357</v>
       </c>
       <c r="E14">
-        <v>-2.0499372165743601E-2</v>
+        <v>-0.0204993721657436</v>
       </c>
       <c r="F14">
-        <v>-5.259356861531117E-3</v>
+        <v>0.004422109242026018</v>
       </c>
       <c r="G14">
-        <v>3.539129644220429E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>7</v>
+        <v>-0.005259356861531783</v>
+      </c>
+      <c r="H14">
+        <v>0.03539129644220496</v>
+      </c>
+      <c r="I14">
+        <v>0.01046981503443534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B15">
         <v>2008</v>
       </c>
       <c r="C15">
-        <v>-7.1761740652158679E-3</v>
+        <v>-0.007176174065215868</v>
       </c>
       <c r="D15">
-        <v>1.188766158375287E-2</v>
+        <v>0.01188766158375265</v>
       </c>
       <c r="E15">
-        <v>-3.0105821262877971E-2</v>
+        <v>-0.03010582126287797</v>
       </c>
       <c r="F15">
-        <v>5.9438307918764366E-3</v>
+        <v>0.004422035652938083</v>
       </c>
       <c r="G15">
-        <v>1.698581640578567E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>7</v>
+        <v>0.005943830791876326</v>
+      </c>
+      <c r="H15">
+        <v>0.01698581640578578</v>
+      </c>
+      <c r="I15">
+        <v>-0.01754204051003028</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B16">
         <v>2009</v>
       </c>
       <c r="C16">
-        <v>-5.175451234799322E-2</v>
+        <v>-0.05175451234799322</v>
       </c>
       <c r="D16">
-        <v>6.1383356123126731E-2</v>
+        <v>0.06138335612312451</v>
       </c>
       <c r="E16">
-        <v>-2.8546027284527931E-2</v>
+        <v>-0.02854602728452793</v>
       </c>
       <c r="F16">
-        <v>3.0691678061563369E-2</v>
+        <v>0.004422014082605674</v>
       </c>
       <c r="G16">
-        <v>-5.3900163125028662E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>7</v>
+        <v>0.03069167806156226</v>
+      </c>
+      <c r="H16">
+        <v>-0.05390016312502754</v>
+      </c>
+      <c r="I16">
+        <v>-0.08686820449216115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B17">
         <v>2010</v>
       </c>
       <c r="C17">
-        <v>4.0863107673560162E-2</v>
+        <v>0.04086310767356016</v>
       </c>
       <c r="D17">
-        <v>-4.425284352337755E-2</v>
+        <v>-0.04425284352337555</v>
       </c>
       <c r="E17">
-        <v>-4.3248405128505141E-2</v>
+        <v>-0.04324840512850514</v>
       </c>
       <c r="F17">
-        <v>-2.2126421761688771E-2</v>
+        <v>0.004422043242502172</v>
       </c>
       <c r="G17">
-        <v>0.10623793456375411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>7</v>
+        <v>-0.02212642176168778</v>
+      </c>
+      <c r="H17">
+        <v>0.1062379345637531</v>
+      </c>
+      <c r="I17">
+        <v>0.05856748619274577</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B18">
         <v>2011</v>
       </c>
       <c r="C18">
-        <v>-1.2322048527257931E-4</v>
+        <v>-0.0001232204852725793</v>
       </c>
       <c r="D18">
-        <v>-3.1539711061263631E-3</v>
+        <v>-0.003153971106125697</v>
       </c>
       <c r="E18">
-        <v>-2.8627521119379381E-2</v>
+        <v>-0.02862752111937938</v>
       </c>
       <c r="F18">
-        <v>-1.576985553063182E-3</v>
+        <v>0.003029390650906905</v>
       </c>
       <c r="G18">
-        <v>3.008128618716999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>7</v>
+        <v>-0.001576985553062848</v>
+      </c>
+      <c r="H18">
+        <v>0.03008128618716965</v>
+      </c>
+      <c r="I18">
+        <v>-0.001575625583116635</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B19">
         <v>2012</v>
       </c>
       <c r="C19">
-        <v>1.484014451129312E-2</v>
+        <v>0.01484014451129312</v>
       </c>
       <c r="D19">
-        <v>-1.464203586964175E-2</v>
+        <v>-0.01464203586964308</v>
       </c>
       <c r="E19">
-        <v>-1.3147795705783951E-2</v>
+        <v>-0.01314779570578395</v>
       </c>
       <c r="F19">
-        <v>-7.3210179348208726E-3</v>
+        <v>0.003029388790683152</v>
       </c>
       <c r="G19">
-        <v>3.530895815189794E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>7</v>
+        <v>-0.007321017934821539</v>
+      </c>
+      <c r="H19">
+        <v>0.03530895815189861</v>
+      </c>
+      <c r="I19">
+        <v>0.01913177365543151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B20">
         <v>2013</v>
       </c>
       <c r="C20">
-        <v>1.2373645430884929E-2</v>
+        <v>0.01237364543088493</v>
       </c>
       <c r="D20">
-        <v>-2.008672987713922E-2</v>
+        <v>-0.02008672987713767</v>
       </c>
       <c r="E20">
-        <v>-1.676715296885822E-2</v>
+        <v>-0.01676715296885822</v>
       </c>
       <c r="F20">
-        <v>-1.004336493856961E-2</v>
+        <v>0.003029426827011905</v>
       </c>
       <c r="G20">
-        <v>3.9184163338312761E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>7</v>
+        <v>-0.01004336493856883</v>
+      </c>
+      <c r="H20">
+        <v>0.03918416333831198</v>
+      </c>
+      <c r="I20">
+        <v>0.01938758354244186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B21">
         <v>2014</v>
       </c>
       <c r="C21">
-        <v>-3.5302745578116301E-3</v>
+        <v>-0.00353027455781163</v>
       </c>
       <c r="D21">
-        <v>-2.9351810861584231E-3</v>
+        <v>-0.002935181086158423</v>
       </c>
       <c r="E21">
-        <v>-1.894527481660813E-2</v>
+        <v>-0.01894527481660813</v>
       </c>
       <c r="F21">
-        <v>-1.4675905430792109E-3</v>
+        <v>0.003029369492238754</v>
       </c>
       <c r="G21">
-        <v>1.6882590801875711E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>7</v>
+        <v>-0.001467590543079211</v>
+      </c>
+      <c r="H21">
+        <v>0.01688259080187571</v>
+      </c>
+      <c r="I21">
+        <v>-0.005092053506971173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
       </c>
       <c r="B22">
         <v>2015</v>
       </c>
       <c r="C22">
-        <v>1.1443031099105831E-2</v>
+        <v>0.01144303109910583</v>
       </c>
       <c r="D22">
-        <v>-1.3995326225966659E-2</v>
+        <v>-0.01399532622596866</v>
       </c>
       <c r="E22">
-        <v>-4.4537533595030432E-3</v>
+        <v>-0.004453753359503043</v>
       </c>
       <c r="F22">
-        <v>-6.9976631129833322E-3</v>
+        <v>0.003029419295297098</v>
       </c>
       <c r="G22">
-        <v>2.2894447571592199E-2</v>
+        <v>-0.006997663112984331</v>
+      </c>
+      <c r="H22">
+        <v>0.0228944475715932</v>
+      </c>
+      <c r="I22">
+        <v>0.01541127491679306</v>
       </c>
     </row>
   </sheetData>

--- a/03_Output/Exercise c/c_Japan.xlsx
+++ b/03_Output/Exercise c/c_Japan.xlsx
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NACE</t>
+          <t>nace</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -412,14 +412,6 @@
       </c>
       <c r="B2">
         <v>1995</v>
-      </c>
-      <c r="C2">
-        <v>-2.967825831896319</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
       </c>
       <c r="F2">
         <v>-0.08513590375708824</v>

--- a/03_Output/Exercise c/c_Japan.xlsx
+++ b/03_Output/Exercise c/c_Japan.xlsx
@@ -414,7 +414,7 @@
         <v>1995</v>
       </c>
       <c r="F2">
-        <v>-0.08513590375708824</v>
+        <v>-8.513590375708823</v>
       </c>
     </row>
     <row r="3">
@@ -427,25 +427,25 @@
         <v>1996</v>
       </c>
       <c r="C3">
-        <v>0.02805593180125188</v>
+        <v>2.805593180125188</v>
       </c>
       <c r="D3">
-        <v>0.002655121227907564</v>
+        <v>0.2655121227907564</v>
       </c>
       <c r="E3">
-        <v>-0.2576007815540926</v>
+        <v>-25.76007815540926</v>
       </c>
       <c r="F3">
-        <v>0.005153660072674704</v>
+        <v>0.5153660072674704</v>
       </c>
       <c r="G3">
-        <v>0.001327560613953782</v>
+        <v>0.1327560613953782</v>
       </c>
       <c r="H3">
-        <v>0.2843291527413907</v>
+        <v>28.43291527413907</v>
       </c>
       <c r="I3">
-        <v>0.02157471111462339</v>
+        <v>2.157471111462339</v>
       </c>
     </row>
     <row r="4">
@@ -458,25 +458,25 @@
         <v>1997</v>
       </c>
       <c r="C4">
-        <v>0.007891943256081113</v>
+        <v>0.7891943256081113</v>
       </c>
       <c r="D4">
-        <v>0.01339376228963052</v>
+        <v>1.339376228963052</v>
       </c>
       <c r="E4">
-        <v>-0.1905413264770655</v>
+        <v>-19.05413264770655</v>
       </c>
       <c r="F4">
-        <v>0.005153721634588049</v>
+        <v>0.5153721634588049</v>
       </c>
       <c r="G4">
-        <v>0.006696881144815259</v>
+        <v>0.6696881144815259</v>
       </c>
       <c r="H4">
-        <v>0.1917363885883313</v>
+        <v>19.17363885883313</v>
       </c>
       <c r="I4">
-        <v>-0.003958659523322194</v>
+        <v>-0.3958659523322194</v>
       </c>
     </row>
     <row r="5">
@@ -489,25 +489,25 @@
         <v>1998</v>
       </c>
       <c r="C5">
-        <v>-0.008585484061444992</v>
+        <v>-0.8585484061444992</v>
       </c>
       <c r="D5">
-        <v>0.0320741031840488</v>
+        <v>3.20741031840488</v>
       </c>
       <c r="E5">
-        <v>-0.1234421421232477</v>
+        <v>-12.34421421232477</v>
       </c>
       <c r="F5">
-        <v>0.005153718410712216</v>
+        <v>0.5153718410712216</v>
       </c>
       <c r="G5">
-        <v>0.0160370515920244</v>
+        <v>1.60370515920244</v>
       </c>
       <c r="H5">
-        <v>0.09881960646977828</v>
+        <v>9.881960646977827</v>
       </c>
       <c r="I5">
-        <v>-0.02977625406418161</v>
+        <v>-2.977625406418161</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>1999</v>
       </c>
       <c r="C6">
-        <v>0.01088403017337281</v>
+        <v>1.088403017337281</v>
       </c>
       <c r="D6">
-        <v>0.01709237706251354</v>
+        <v>1.709237706251354</v>
       </c>
       <c r="E6">
-        <v>-0.08529287555936937</v>
+        <v>-8.529287555936937</v>
       </c>
       <c r="F6">
-        <v>0.005153722647328829</v>
+        <v>0.5153722647328829</v>
       </c>
       <c r="G6">
-        <v>0.008546188531256771</v>
+        <v>0.8546188531256771</v>
       </c>
       <c r="H6">
-        <v>0.08763071720148541</v>
+        <v>8.763071720148542</v>
       </c>
       <c r="I6">
-        <v>-0.002815881005212795</v>
+        <v>-0.2815881005212795</v>
       </c>
     </row>
     <row r="7">
@@ -551,25 +551,25 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0.02659493397741541</v>
+        <v>2.659493397741541</v>
       </c>
       <c r="D7">
-        <v>-0.005729577945644104</v>
+        <v>-0.5729577945644104</v>
       </c>
       <c r="E7">
-        <v>-0.06917132174841578</v>
+        <v>-6.917132174841578</v>
       </c>
       <c r="F7">
-        <v>0.005153733493302282</v>
+        <v>0.5153733493302282</v>
       </c>
       <c r="G7">
-        <v>-0.002864788972822052</v>
+        <v>-0.2864788972822052</v>
       </c>
       <c r="H7">
-        <v>0.09863104469865325</v>
+        <v>9.863104469865325</v>
       </c>
       <c r="I7">
-        <v>0.02430598945693518</v>
+        <v>2.430598945693518</v>
       </c>
     </row>
     <row r="8">
@@ -582,25 +582,25 @@
         <v>2001</v>
       </c>
       <c r="C8">
-        <v>0.004197344096313227</v>
+        <v>0.4197344096313227</v>
       </c>
       <c r="D8">
-        <v>0.01704530238407065</v>
+        <v>1.704530238407065</v>
       </c>
       <c r="E8">
-        <v>-0.06675148662516284</v>
+        <v>-6.675148662516284</v>
       </c>
       <c r="F8">
-        <v>0.004421992285685628</v>
+        <v>0.4421992285685628</v>
       </c>
       <c r="G8">
-        <v>0.008522651192035324</v>
+        <v>0.8522651192035324</v>
       </c>
       <c r="H8">
-        <v>0.06242617952944074</v>
+        <v>6.242617952944074</v>
       </c>
       <c r="I8">
-        <v>-0.008747299381407725</v>
+        <v>-0.8747299381407725</v>
       </c>
     </row>
     <row r="9">
@@ -613,25 +613,25 @@
         <v>2002</v>
       </c>
       <c r="C9">
-        <v>0.01885923324034278</v>
+        <v>1.885923324034278</v>
       </c>
       <c r="D9">
-        <v>0.004525355250540875</v>
+        <v>0.4525355250540875</v>
       </c>
       <c r="E9">
-        <v>-0.03140270055115746</v>
+        <v>-3.140270055115746</v>
       </c>
       <c r="F9">
-        <v>0.004422088079906183</v>
+        <v>0.4422088079906183</v>
       </c>
       <c r="G9">
-        <v>0.002262677625270437</v>
+        <v>0.2262677625270437</v>
       </c>
       <c r="H9">
-        <v>0.0479992561662298</v>
+        <v>4.79992561662298</v>
       </c>
       <c r="I9">
-        <v>0.01217446753516616</v>
+        <v>1.217446753516616</v>
       </c>
     </row>
     <row r="10">
@@ -644,25 +644,25 @@
         <v>2003</v>
       </c>
       <c r="C10">
-        <v>0.01764814931460279</v>
+        <v>1.764814931460279</v>
       </c>
       <c r="D10">
-        <v>-0.008432767499768401</v>
+        <v>-0.8432767499768401</v>
       </c>
       <c r="E10">
-        <v>-0.007831725022865665</v>
+        <v>-0.7831725022865665</v>
       </c>
       <c r="F10">
-        <v>0.004422026394890644</v>
+        <v>0.4422026394890644</v>
       </c>
       <c r="G10">
-        <v>-0.004216383749884201</v>
+        <v>-0.4216383749884201</v>
       </c>
       <c r="H10">
-        <v>0.02969625808735266</v>
+        <v>2.969625808735266</v>
       </c>
       <c r="I10">
-        <v>0.01744250666959635</v>
+        <v>1.744250666959635</v>
       </c>
     </row>
     <row r="11">
@@ -675,25 +675,25 @@
         <v>2004</v>
       </c>
       <c r="C11">
-        <v>0.02027862931616919</v>
+        <v>2.027862931616919</v>
       </c>
       <c r="D11">
-        <v>-0.01479347452357405</v>
+        <v>-1.479347452357405</v>
       </c>
       <c r="E11">
-        <v>0.01679998424695395</v>
+        <v>1.679998424695395</v>
       </c>
       <c r="F11">
-        <v>0.004422019633953722</v>
+        <v>0.4422019633953722</v>
       </c>
       <c r="G11">
-        <v>-0.007396737261787023</v>
+        <v>-0.7396737261787023</v>
       </c>
       <c r="H11">
-        <v>0.01087538233100227</v>
+        <v>1.087538233100227</v>
       </c>
       <c r="I11">
-        <v>0.0232533469440025</v>
+        <v>2.32533469440025</v>
       </c>
     </row>
     <row r="12">
@@ -706,25 +706,25 @@
         <v>2005</v>
       </c>
       <c r="C12">
-        <v>0.01814120274997988</v>
+        <v>1.814120274997988</v>
       </c>
       <c r="D12">
-        <v>-0.01403860646348587</v>
+        <v>-1.403860646348587</v>
       </c>
       <c r="E12">
-        <v>0.0216143122422614</v>
+        <v>2.16143122422614</v>
       </c>
       <c r="F12">
-        <v>0.004422066455912255</v>
+        <v>0.4422066455912255</v>
       </c>
       <c r="G12">
-        <v>-0.007019303231742935</v>
+        <v>-0.7019303231742935</v>
       </c>
       <c r="H12">
-        <v>0.003546193739461412</v>
+        <v>0.3546193739461412</v>
       </c>
       <c r="I12">
-        <v>0.02073843952581056</v>
+        <v>2.073843952581056</v>
       </c>
     </row>
     <row r="13">
@@ -737,25 +737,25 @@
         <v>2006</v>
       </c>
       <c r="C13">
-        <v>0.008409294553679114</v>
+        <v>0.8409294553679114</v>
       </c>
       <c r="D13">
-        <v>-0.006329893620452332</v>
+        <v>-0.6329893620452332</v>
       </c>
       <c r="E13">
-        <v>0.004432745058740473</v>
+        <v>0.4432745058740473</v>
       </c>
       <c r="F13">
-        <v>0.004421957371923968</v>
+        <v>0.4421957371923968</v>
       </c>
       <c r="G13">
-        <v>-0.003164946810226166</v>
+        <v>-0.3164946810226166</v>
       </c>
       <c r="H13">
-        <v>0.007141496305164807</v>
+        <v>0.7141496305164807</v>
       </c>
       <c r="I13">
-        <v>0.007152283991981312</v>
+        <v>0.7152283991981312</v>
       </c>
     </row>
     <row r="14">
@@ -768,25 +768,25 @@
         <v>2007</v>
       </c>
       <c r="C14">
-        <v>0.009632567414929571</v>
+        <v>0.9632567414929571</v>
       </c>
       <c r="D14">
-        <v>-0.01051871372306357</v>
+        <v>-1.051871372306357</v>
       </c>
       <c r="E14">
-        <v>-0.0204993721657436</v>
+        <v>-2.04993721657436</v>
       </c>
       <c r="F14">
-        <v>0.004422109242026018</v>
+        <v>0.4422109242026018</v>
       </c>
       <c r="G14">
-        <v>-0.005259356861531783</v>
+        <v>-0.5259356861531783</v>
       </c>
       <c r="H14">
-        <v>0.03539129644220496</v>
+        <v>3.539129644220496</v>
       </c>
       <c r="I14">
-        <v>0.01046981503443534</v>
+        <v>1.046981503443534</v>
       </c>
     </row>
     <row r="15">
@@ -799,25 +799,25 @@
         <v>2008</v>
       </c>
       <c r="C15">
-        <v>-0.007176174065215868</v>
+        <v>-0.7176174065215868</v>
       </c>
       <c r="D15">
-        <v>0.01188766158375265</v>
+        <v>1.188766158375265</v>
       </c>
       <c r="E15">
-        <v>-0.03010582126287797</v>
+        <v>-3.010582126287797</v>
       </c>
       <c r="F15">
-        <v>0.004422035652938083</v>
+        <v>0.4422035652938083</v>
       </c>
       <c r="G15">
-        <v>0.005943830791876326</v>
+        <v>0.5943830791876326</v>
       </c>
       <c r="H15">
-        <v>0.01698581640578578</v>
+        <v>1.698581640578578</v>
       </c>
       <c r="I15">
-        <v>-0.01754204051003028</v>
+        <v>-1.754204051003028</v>
       </c>
     </row>
     <row r="16">
@@ -830,25 +830,25 @@
         <v>2009</v>
       </c>
       <c r="C16">
-        <v>-0.05175451234799322</v>
+        <v>-5.175451234799322</v>
       </c>
       <c r="D16">
-        <v>0.06138335612312451</v>
+        <v>6.138335612312451</v>
       </c>
       <c r="E16">
-        <v>-0.02854602728452793</v>
+        <v>-2.854602728452793</v>
       </c>
       <c r="F16">
-        <v>0.004422014082605674</v>
+        <v>0.4422014082605674</v>
       </c>
       <c r="G16">
-        <v>0.03069167806156226</v>
+        <v>3.069167806156226</v>
       </c>
       <c r="H16">
-        <v>-0.05390016312502754</v>
+        <v>-5.390016312502755</v>
       </c>
       <c r="I16">
-        <v>-0.08686820449216115</v>
+        <v>-8.686820449216116</v>
       </c>
     </row>
     <row r="17">
@@ -861,25 +861,25 @@
         <v>2010</v>
       </c>
       <c r="C17">
-        <v>0.04086310767356016</v>
+        <v>4.086310767356016</v>
       </c>
       <c r="D17">
-        <v>-0.04425284352337555</v>
+        <v>-4.425284352337555</v>
       </c>
       <c r="E17">
-        <v>-0.04324840512850514</v>
+        <v>-4.324840512850514</v>
       </c>
       <c r="F17">
-        <v>0.004422043242502172</v>
+        <v>0.4422043242502172</v>
       </c>
       <c r="G17">
-        <v>-0.02212642176168778</v>
+        <v>-2.212642176168778</v>
       </c>
       <c r="H17">
-        <v>0.1062379345637531</v>
+        <v>10.62379345637531</v>
       </c>
       <c r="I17">
-        <v>0.05856748619274577</v>
+        <v>5.856748619274577</v>
       </c>
     </row>
     <row r="18">
@@ -892,25 +892,25 @@
         <v>2011</v>
       </c>
       <c r="C18">
-        <v>-0.0001232204852725793</v>
+        <v>-0.01232204852725793</v>
       </c>
       <c r="D18">
-        <v>-0.003153971106125697</v>
+        <v>-0.3153971106125697</v>
       </c>
       <c r="E18">
-        <v>-0.02862752111937938</v>
+        <v>-2.862752111937938</v>
       </c>
       <c r="F18">
-        <v>0.003029390650906905</v>
+        <v>0.3029390650906905</v>
       </c>
       <c r="G18">
-        <v>-0.001576985553062848</v>
+        <v>-0.1576985553062848</v>
       </c>
       <c r="H18">
-        <v>0.03008128618716965</v>
+        <v>3.008128618716965</v>
       </c>
       <c r="I18">
-        <v>-0.001575625583116635</v>
+        <v>-0.1575625583116635</v>
       </c>
     </row>
     <row r="19">
@@ -923,25 +923,25 @@
         <v>2012</v>
       </c>
       <c r="C19">
-        <v>0.01484014451129312</v>
+        <v>1.484014451129312</v>
       </c>
       <c r="D19">
-        <v>-0.01464203586964308</v>
+        <v>-1.464203586964308</v>
       </c>
       <c r="E19">
-        <v>-0.01314779570578395</v>
+        <v>-1.314779570578395</v>
       </c>
       <c r="F19">
-        <v>0.003029388790683152</v>
+        <v>0.3029388790683152</v>
       </c>
       <c r="G19">
-        <v>-0.007321017934821539</v>
+        <v>-0.7321017934821539</v>
       </c>
       <c r="H19">
-        <v>0.03530895815189861</v>
+        <v>3.530895815189861</v>
       </c>
       <c r="I19">
-        <v>0.01913177365543151</v>
+        <v>1.913177365543151</v>
       </c>
     </row>
     <row r="20">
@@ -954,25 +954,25 @@
         <v>2013</v>
       </c>
       <c r="C20">
-        <v>0.01237364543088493</v>
+        <v>1.237364543088493</v>
       </c>
       <c r="D20">
-        <v>-0.02008672987713767</v>
+        <v>-2.008672987713767</v>
       </c>
       <c r="E20">
-        <v>-0.01676715296885822</v>
+        <v>-1.676715296885822</v>
       </c>
       <c r="F20">
-        <v>0.003029426827011905</v>
+        <v>0.3029426827011905</v>
       </c>
       <c r="G20">
-        <v>-0.01004336493856883</v>
+        <v>-1.004336493856883</v>
       </c>
       <c r="H20">
-        <v>0.03918416333831198</v>
+        <v>3.918416333831198</v>
       </c>
       <c r="I20">
-        <v>0.01938758354244186</v>
+        <v>1.938758354244186</v>
       </c>
     </row>
     <row r="21">
@@ -985,25 +985,25 @@
         <v>2014</v>
       </c>
       <c r="C21">
-        <v>-0.00353027455781163</v>
+        <v>-0.353027455781163</v>
       </c>
       <c r="D21">
-        <v>-0.002935181086158423</v>
+        <v>-0.2935181086158423</v>
       </c>
       <c r="E21">
-        <v>-0.01894527481660813</v>
+        <v>-1.894527481660813</v>
       </c>
       <c r="F21">
-        <v>0.003029369492238754</v>
+        <v>0.3029369492238754</v>
       </c>
       <c r="G21">
-        <v>-0.001467590543079211</v>
+        <v>-0.1467590543079211</v>
       </c>
       <c r="H21">
-        <v>0.01688259080187571</v>
+        <v>1.688259080187571</v>
       </c>
       <c r="I21">
-        <v>-0.005092053506971173</v>
+        <v>-0.5092053506971173</v>
       </c>
     </row>
     <row r="22">
@@ -1016,25 +1016,25 @@
         <v>2015</v>
       </c>
       <c r="C22">
-        <v>0.01144303109910583</v>
+        <v>1.144303109910583</v>
       </c>
       <c r="D22">
-        <v>-0.01399532622596866</v>
+        <v>-1.399532622596866</v>
       </c>
       <c r="E22">
-        <v>-0.004453753359503043</v>
+        <v>-0.4453753359503043</v>
       </c>
       <c r="F22">
-        <v>0.003029419295297098</v>
+        <v>0.3029419295297098</v>
       </c>
       <c r="G22">
-        <v>-0.006997663112984331</v>
+        <v>-0.6997663112984331</v>
       </c>
       <c r="H22">
-        <v>0.0228944475715932</v>
+        <v>2.28944475715932</v>
       </c>
       <c r="I22">
-        <v>0.01541127491679306</v>
+        <v>1.541127491679306</v>
       </c>
     </row>
   </sheetData>
